--- a/Assets/UDataExcelToCsharp/Excel/LevelData.xlsx
+++ b/Assets/UDataExcelToCsharp/Excel/LevelData.xlsx
@@ -128,9 +128,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
-  <si>
-    <t>序号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+  <si>
+    <t>序号Id</t>
   </si>
   <si>
     <t>关卡id</t>
@@ -184,6 +184,9 @@
     <t>LevelBGimg</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>Int32</t>
   </si>
   <si>
@@ -191,54 +194,6 @@
   </si>
   <si>
     <t>1,2</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>1,10</t>
-  </si>
-  <si>
-    <t>1,11</t>
-  </si>
-  <si>
-    <t>1,12</t>
-  </si>
-  <si>
-    <t>1,13</t>
-  </si>
-  <si>
-    <t>1,14</t>
-  </si>
-  <si>
-    <t>1,15</t>
-  </si>
-  <si>
-    <t>1,16</t>
-  </si>
-  <si>
-    <t>1,17</t>
-  </si>
-  <si>
-    <t>1,18</t>
   </si>
 </sst>
 </file>
@@ -246,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -264,13 +219,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -282,6 +230,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -289,16 +266,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,50 +327,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,16 +343,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,21 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -430,25 +385,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,157 +433,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,6 +590,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,15 +646,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -689,9 +653,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,162 +676,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,7 +1157,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1280,25 +1235,25 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1318,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>70022</v>
@@ -1344,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>70015</v>
@@ -1370,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>70014</v>
@@ -1396,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
         <v>70026</v>
@@ -1422,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
         <v>70003</v>
@@ -1448,7 +1403,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1">
         <v>70032</v>
@@ -1474,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1">
         <v>70027</v>
@@ -1500,7 +1455,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>70010</v>
@@ -1526,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1">
         <v>70019</v>
@@ -1552,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1">
         <v>70024</v>
@@ -1578,7 +1533,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1">
         <v>70012</v>
@@ -1604,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1">
         <v>70016</v>
@@ -1630,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1">
         <v>70004</v>
@@ -1656,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1">
         <v>70021</v>
@@ -1681,8 +1636,8 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
+      <c r="F18" s="1">
+        <v>16</v>
       </c>
       <c r="G18" s="1">
         <v>70009</v>
@@ -1708,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="1">
         <v>70002</v>
@@ -1733,8 +1688,8 @@
       <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
+      <c r="F20" s="1">
+        <v>18</v>
       </c>
       <c r="G20" s="1">
         <v>70006</v>
@@ -1759,8 +1714,8 @@
       <c r="E21" s="1">
         <v>11</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
+      <c r="F21" s="1">
+        <v>19</v>
       </c>
       <c r="G21" s="1">
         <v>70020</v>
@@ -1785,8 +1740,8 @@
       <c r="E22" s="1">
         <v>4</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
+      <c r="F22" s="1">
+        <v>20</v>
       </c>
       <c r="G22" s="1">
         <v>70005</v>
@@ -1811,8 +1766,8 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>26</v>
+      <c r="F23" s="1">
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>70018</v>
@@ -1837,8 +1792,8 @@
       <c r="E24" s="1">
         <v>6</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>27</v>
+      <c r="F24" s="1">
+        <v>22</v>
       </c>
       <c r="G24" s="1">
         <v>70030</v>
@@ -1863,8 +1818,8 @@
       <c r="E25" s="1">
         <v>7</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>28</v>
+      <c r="F25" s="1">
+        <v>23</v>
       </c>
       <c r="G25" s="1">
         <v>70007</v>
@@ -1889,8 +1844,8 @@
       <c r="E26" s="1">
         <v>8</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>29</v>
+      <c r="F26" s="1">
+        <v>24</v>
       </c>
       <c r="G26" s="1">
         <v>70045</v>
@@ -1915,8 +1870,8 @@
       <c r="E27" s="1">
         <v>9</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>30</v>
+      <c r="F27" s="1">
+        <v>25</v>
       </c>
       <c r="G27" s="1">
         <v>70043</v>
@@ -1941,8 +1896,8 @@
       <c r="E28" s="1">
         <v>10</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>31</v>
+      <c r="F28" s="1">
+        <v>26</v>
       </c>
       <c r="G28" s="1">
         <v>70036</v>
@@ -1967,8 +1922,8 @@
       <c r="E29" s="1">
         <v>11</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>32</v>
+      <c r="F29" s="1">
+        <v>27</v>
       </c>
       <c r="G29" s="1">
         <v>70035</v>
@@ -1993,8 +1948,8 @@
       <c r="E30" s="1">
         <v>12</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>33</v>
+      <c r="F30" s="1">
+        <v>28</v>
       </c>
       <c r="G30" s="1">
         <v>70031</v>
@@ -2019,8 +1974,8 @@
       <c r="E31" s="1">
         <v>13</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>34</v>
+      <c r="F31" s="1">
+        <v>29</v>
       </c>
       <c r="G31" s="1">
         <v>70013</v>
@@ -2045,8 +2000,8 @@
       <c r="E32" s="1">
         <v>14</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>35</v>
+      <c r="F32" s="1">
+        <v>30</v>
       </c>
       <c r="G32" s="1">
         <v>70038</v>
@@ -2071,8 +2026,8 @@
       <c r="E33" s="1">
         <v>15</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>36</v>
+      <c r="F33" s="1">
+        <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>70044</v>
